--- a/Classes Taken.xlsx
+++ b/Classes Taken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdere\Documents\GitHub\CS1980\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE7F354-339C-47C7-9C85-F1C420C831BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF91B12D-2BAB-44AB-9411-A579891170B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{AA383231-D1B8-4EEF-9E24-2583CC65B636}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="27" uniqueCount="7">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="70" uniqueCount="7">
   <si>
     <t>Analytics ID</t>
   </si>
@@ -406,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C9F40-7130-4B9C-A84C-150BBA95EB79}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +433,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -453,8 +468,23 @@
       <c r="F2">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>445</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,8 +503,23 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>445</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -493,8 +538,23 @@
       <c r="F4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>445</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -513,8 +573,23 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>445</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -533,8 +608,23 @@
       <c r="F6">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>445</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -551,10 +641,25 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>445</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -573,8 +678,23 @@
       <c r="F8">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>445</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -593,8 +713,23 @@
       <c r="F9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>445</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -611,10 +746,25 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.25</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>445</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -633,13 +783,28 @@
       <c r="F11">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>445</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -653,13 +818,16 @@
       <c r="F12">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -673,13 +841,16 @@
       <c r="F13">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -693,13 +864,16 @@
       <c r="F14">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -713,13 +887,16 @@
       <c r="F15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -733,8 +910,11 @@
       <c r="F16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -753,8 +933,23 @@
       <c r="F17">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>445</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -773,8 +968,23 @@
       <c r="F18">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>445</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -793,8 +1003,23 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>445</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -813,8 +1038,23 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>445</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -833,8 +1073,23 @@
       <c r="F21">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>445</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -852,6 +1107,324 @@
       </c>
       <c r="F22">
         <v>2.75</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>445</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>401</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>3.25</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>445</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>401</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>2.25</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>445</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>401</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>3.25</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>445</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>401</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2.25</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>445</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>401</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3.75</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>445</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>401</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>3.75</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>445</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>401</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>3.25</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>445</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>401</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>445</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>401</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>3.25</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Classes Taken.xlsx
+++ b/Classes Taken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdere\Documents\GitHub\CS1980\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF91B12D-2BAB-44AB-9411-A579891170B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4CAAA77B-DB16-44E6-B12E-0E17D8406331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{AA383231-D1B8-4EEF-9E24-2583CC65B636}"/>
   </bookViews>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C9F40-7130-4B9C-A84C-150BBA95EB79}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,9 +1423,6 @@
       <c r="F31">
         <v>3.25</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
